--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdijk\Desktop\bit-academy\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035253F-6C8E-475C-8F1B-D79F29714A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E29124-7052-44CF-AE7C-3292361E939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Momenteel niet.</t>
+  </si>
+  <si>
+    <t>Laraval installatie voltooid en bezig met workshop laracast</t>
+  </si>
+  <si>
+    <t>Database installeren in ons project, voor de rest ga ik wederom verder met de laracast cursus zodat ik mijn kennis van de database kan uitbreiden.</t>
+  </si>
+  <si>
+    <t>Verdiepen van databasing met behulp van Laravel, ik heb hier de laracast cursus voor gebruikt.</t>
+  </si>
+  <si>
+    <t>Verder verdiepen in databasing voor laravel.</t>
+  </si>
+  <si>
+    <t>Laraval installatie voltooid en bezig met workshop laracast.</t>
   </si>
 </sst>
 </file>
@@ -146,32 +161,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -452,26 +463,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="7"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
         <v>45364</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -485,53 +494,51 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>45365</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -545,53 +552,51 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>45366</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -604,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +625,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdijk\Desktop\bit-academy\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E29124-7052-44CF-AE7C-3292361E939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28ED10A-8438-403C-9D68-FBFCE75E322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Momenteel niet.</t>
   </si>
   <si>
-    <t>Laraval installatie voltooid en bezig met workshop laracast</t>
-  </si>
-  <si>
     <t>Database installeren in ons project, voor de rest ga ik wederom verder met de laracast cursus zodat ik mijn kennis van de database kan uitbreiden.</t>
   </si>
   <si>
@@ -76,6 +73,21 @@
   </si>
   <si>
     <t>Laraval installatie voltooid en bezig met workshop laracast.</t>
+  </si>
+  <si>
+    <t>Momenteel niet</t>
+  </si>
+  <si>
+    <t>Ik heb dod geschreven en de userstories in github gezet.</t>
+  </si>
+  <si>
+    <t>Verder verdiepen in Laravel en bij de user stories een checklist maken en de acceptatie criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik heb gister de checklist gemaakt bij alle user stories en de acceptatie criteria er bij gezet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ga me verder verdiepen in Laravel en ik ga de gezamelijke document aanmaken met de docenten. </t>
   </si>
 </sst>
 </file>
@@ -466,20 +478,20 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>45364</v>
       </c>
@@ -495,35 +507,39 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,11 +549,13 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45365</v>
       </c>
@@ -553,35 +571,39 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -591,11 +613,13 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45366</v>
       </c>
@@ -609,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +641,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +649,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28ED10A-8438-403C-9D68-FBFCE75E322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898B74AF-4CA1-4910-8A15-19514743793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ik ga me verder verdiepen in Laravel en ik ga de gezamelijke document aanmaken met de docenten. </t>
+  </si>
+  <si>
+    <t>Ik heb gisteren de github projects bijgewerkt waardoor alles nu veel overzichtelijker is en de taken beter verdeeld zijn. Daarnaast heb ik de footer, en de tekst en afbeelding geoptimaliseerd voor kleinere schermen.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik de homepagina afmaken en een begin maken met de over ons pagina.</t>
+  </si>
+  <si>
+    <t>Ik ben verder gegaan met de Laracast Databasing workshop en samen met Chris de github projects bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Ik ga vandaag verder met de Laracast Databasing  workshop.</t>
   </si>
 </sst>
 </file>
@@ -173,15 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -195,6 +204,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -475,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,171 +506,221 @@
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
         <v>45364</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>45365</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45366</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898B74AF-4CA1-4910-8A15-19514743793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C7C33-9FB4-4CFE-AB6B-4392E43F9B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Ik ga vandaag verder met de Laracast Databasing  workshop.</t>
+  </si>
+  <si>
+    <t>Ik heb gister mezelf verdiept in laravel en ik heb een paar userstories op mijn naam gezet voor sprint 1</t>
+  </si>
+  <si>
+    <t>momenteel niet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ga me verder verdiepen in Laravel en ik ga beginnen met een userstorie </t>
   </si>
 </sst>
 </file>
@@ -493,7 +502,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +667,9 @@
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -670,7 +681,9 @@
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -682,7 +695,9 @@
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C7C33-9FB4-4CFE-AB6B-4392E43F9B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7582BA77-0AC3-49B6-A515-8DEE5CC4FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ik ga me verder verdiepen in Laravel en ik ga beginnen met een userstorie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ben verder gegaan met de Laracast Databasing workshop </t>
+  </si>
+  <si>
+    <t>Vandaag ga ik aan mijn userstorie verder en mij verder verdiepen met de laracast databasing workshop.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,21 +719,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -735,7 +745,9 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdijk\Desktop\bit-academy\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7582BA77-0AC3-49B6-A515-8DEE5CC4FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325CA98-2A0A-4AB6-9195-DFE564BB57D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Vandaag ga ik aan mijn userstorie verder en mij verder verdiepen met de laracast databasing workshop.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik bezig geweest met laracast.</t>
+  </si>
+  <si>
+    <t>Vandaag wil ik een database afhebben voor de leerlingen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momenteel niet. </t>
   </si>
 </sst>
 </file>
@@ -507,21 +516,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
         <v>45364</v>
       </c>
@@ -537,7 +546,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,7 +562,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +578,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,7 +594,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45365</v>
       </c>
@@ -601,7 +610,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +626,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +642,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -649,7 +658,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45366</v>
       </c>
@@ -663,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45369</v>
       </c>
@@ -719,31 +728,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>16</v>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdijk\Desktop\bit-academy\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325CA98-2A0A-4AB6-9195-DFE564BB57D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72ED752-4A3D-4EDB-B9AC-228EE00A1A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -120,10 +120,16 @@
     <t>Gisteren ben ik bezig geweest met laracast.</t>
   </si>
   <si>
-    <t>Vandaag wil ik een database afhebben voor de leerlingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momenteel niet. </t>
+    <t>Ik heb gisteren de homepagina afgemaakt en ben begonnen met de over ons pagina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momenteel niet. </t>
+  </si>
+  <si>
+    <t>Vandaag wil ik verdergaan met de overzicht pagina.</t>
+  </si>
+  <si>
+    <t>Vandaag wil ik een live database aanmaken, zodat we alle 3 op een database zitten.</t>
   </si>
 </sst>
 </file>
@@ -516,21 +522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>45364</v>
       </c>
@@ -546,7 +552,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,7 +568,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +584,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -594,7 +600,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45365</v>
       </c>
@@ -610,7 +616,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,7 +632,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,7 +664,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45366</v>
       </c>
@@ -672,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,7 +692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45369</v>
       </c>
@@ -728,38 +734,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
       </c>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdijk\Desktop\bit-academy\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72ED752-4A3D-4EDB-B9AC-228EE00A1A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B6BF6-3DD9-401F-824C-56EB76DB7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>Vandaag wil ik verdergaan met de overzicht pagina.</t>
   </si>
   <si>
-    <t>Vandaag wil ik een live database aanmaken, zodat we alle 3 op een database zitten.</t>
+    <t>Vandaag wil ik een live database aanmaken, zodat we alle 3 op een database zitten. Ook wil ik een ReadME toevoegen.</t>
   </si>
 </sst>
 </file>
@@ -522,21 +522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
         <v>45364</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45365</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,7 +664,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45366</v>
       </c>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45369</v>
       </c>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdijk\Desktop\bit-academy\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B6BF6-3DD9-401F-824C-56EB76DB7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27B4F3-5EE4-4307-815A-0A5F906C9574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -126,10 +126,28 @@
     <t xml:space="preserve">Momenteel niet. </t>
   </si>
   <si>
-    <t>Vandaag wil ik verdergaan met de overzicht pagina.</t>
-  </si>
-  <si>
-    <t>Vandaag wil ik een live database aanmaken, zodat we alle 3 op een database zitten. Ook wil ik een ReadME toevoegen.</t>
+    <t>Vandaag wil ik verdergaan met de overzicht pagina en wil ik een begin maken met het koppelen van de database op de overzichtpagina.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met de overzichtpagina.</t>
+  </si>
+  <si>
+    <t>Vandaag wil ik verdergaan met de overzicht pagina en een samen met Bruno een begin maken aan de over ons pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik aan de README gewerkt en ben ik verder gegaan met de Laracast workshop. Ik ben nu bij level 25.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik samen met Chris werken aan de front-end van de overzicht pagina en de over ons pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen aan de styling van de agenda.</t>
+  </si>
+  <si>
+    <t>Vandaag wil ik een live database aanmaken, zodat we alle 3 op een database zitten. Ook wil ik een README toevoegen.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder aan de agenda.</t>
   </si>
 </sst>
 </file>
@@ -520,23 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>45364</v>
       </c>
@@ -552,7 +570,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,7 +586,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +602,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -600,7 +618,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45365</v>
       </c>
@@ -616,7 +634,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,7 +650,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +666,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,7 +682,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45366</v>
       </c>
@@ -678,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -692,7 +710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -720,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45369</v>
       </c>
@@ -734,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,12 +766,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>33</v>
@@ -762,7 +780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,6 +791,62 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45370</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27B4F3-5EE4-4307-815A-0A5F906C9574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180DA94-1C88-41BD-9335-58DCBC96BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>Vandaag ga ik verder aan de agenda.</t>
+  </si>
+  <si>
+    <t>Ik heb gisteren aan de login pagina gewerkt en ik heb de 404 pagina gemaakt en die mooi gestyled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandaag ga ik er voor zorgen dat de wachtwoord die je opslaat in de database dat de wachtwoord gehashed wordt en alles voldoet aan de normen en waarden van de privacy regels. </t>
+  </si>
+  <si>
+    <t>verder gegaan met de overzicht pagina en me verdiept in breeze en geinstelleerd op onze laravel project</t>
+  </si>
+  <si>
+    <t>vandaag ga ik verder aan de login systeem samen met bruno en bezig houden met stylen van de pagina's en de 404.</t>
+  </si>
+  <si>
+    <t>Ik heb gister een nieuwe database aangemaakt voor het plannen van nieuwe rijlessen en afspraken en ik ben begonnen aan het stylen van de kalender</t>
+  </si>
+  <si>
+    <t>Ik ga verder werken aan de database voor de rijlessen en ik ga verder aan de kalender.</t>
   </si>
 </sst>
 </file>
@@ -538,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +868,62 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45371</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180DA94-1C88-41BD-9335-58DCBC96BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3309B05-143E-497F-9C4A-C41D1F07B4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -156,16 +156,52 @@
     <t xml:space="preserve">vandaag ga ik er voor zorgen dat de wachtwoord die je opslaat in de database dat de wachtwoord gehashed wordt en alles voldoet aan de normen en waarden van de privacy regels. </t>
   </si>
   <si>
-    <t>verder gegaan met de overzicht pagina en me verdiept in breeze en geinstelleerd op onze laravel project</t>
-  </si>
-  <si>
-    <t>vandaag ga ik verder aan de login systeem samen met bruno en bezig houden met stylen van de pagina's en de 404.</t>
-  </si>
-  <si>
     <t>Ik heb gister een nieuwe database aangemaakt voor het plannen van nieuwe rijlessen en afspraken en ik ben begonnen aan het stylen van de kalender</t>
   </si>
   <si>
-    <t>Ik ga verder werken aan de database voor de rijlessen en ik ga verder aan de kalender.</t>
+    <t>Gisteren ben ik verder gegaan met de overzicht pagina en heb me verdiept in Breeze. Dit heb ik geïnstalleerd in ons project.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik Bruno en Abbi helpen met de installatie van Breeze en Abbi helpen met de 404 pagina.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder aan het login systeem samen met Bruno en ik ga me bezig houden met stylen van de pagina's.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik verder gegaan aan het login systeem en ben ik bezig geweest met het stylen van de pagina's.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder werken aan de GitHub projects en ben ik bezig geweest met het vinden van afbeeldingen voor op de pagina's.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik bezig geweest met de database. Ik heb ervoor gezorgd dat het wachtwoord wordt opgeslagen en gehashed in de database.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik beginnen met het stylen van de tarieven pagina.</t>
+  </si>
+  <si>
+    <t>Ik ga vandaag beginnen met het stylen van de 404 pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met het stylen van de 404 pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik Bruno en Abbi geholpen met de installatie van Breeze en de 404 pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met het stylen van de tarieven pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik de Github Projects bijgewerkt en begonnen met het zoeken van afbeeldingen.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder met het stylen van de tarieven pagina.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder met het zoeken van afbeeldingen en het schrijven van teksten.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik beginnen met het stylen van de login en aanmelden pagina's en het optimaliseren van afbeeldingen.</t>
   </si>
 </sst>
 </file>
@@ -556,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,10 +926,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -904,10 +940,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,6 +957,118 @@
         <v>11</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45372</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3309B05-143E-497F-9C4A-C41D1F07B4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134A546-95C6-4455-B955-88EDC251F9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>Vandaag ga ik beginnen met het stylen van de login en aanmelden pagina's en het optimaliseren van afbeeldingen.</t>
+  </si>
+  <si>
+    <t>Vorige week vrijdag ben ik op zoek gegaan naar afbeeldingen en begonnen met het schrijven van teksten.</t>
+  </si>
+  <si>
+    <t>Vandaag wil ik de huisstyling + content op iedere pagina nalopen/afmaken. Daarnaast ga ik met Chris de login stylen.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder met het maken van de agenda voor de overzicht pagina's.</t>
+  </si>
+  <si>
+    <t>Vorige week vrijdag heb ik de tarieven pagina gestyled.</t>
+  </si>
+  <si>
+    <t>Vorige week vrijdag heb ik alle afbeeldingen geoptimaliseerd, de teksten toegevoegd en begonnen met het stylen van de login pagina.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik met Bruno op alle pagina's de huisstyling en content nalopen en de login stylen. En we gaan een blok maken met de medewerkers op de over ons pagina.</t>
   </si>
 </sst>
 </file>
@@ -592,9 +610,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1072,6 +1090,62 @@
         <v>16</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbi\Documents\Github-School-Projects\rijschool-abc\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1ECD3C-97C2-4ECB-A87E-954A38BF69EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F079B-536C-4B70-976F-8C2CFF438F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,13 +219,7 @@
     <t>Vorige week vrijdag heb ik alle afbeeldingen geoptimaliseerd, de teksten toegevoegd en begonnen met het stylen van de login pagina.</t>
   </si>
   <si>
-    <t>Vandaag ga ik met Bruno op alle pagina's de huisstyling en content nalopen en de login stylen. En we gaan een blok maken met de medewerkers op de over ons pagina.</t>
-  </si>
-  <si>
     <t>Vandaag ga ik verder met de login pagina stylen. Ik werk vandaag thuis omdat ik ziek ben.</t>
-  </si>
-  <si>
-    <t>Ik heb gisteren  alle pagina's de huisstyling en content nalopen en de login stylen</t>
   </si>
   <si>
     <t>Gisteren heb ik lopen stylen op de over ons pagina. En de tekst geschreven voor de instructeurs</t>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vandaag ga ik verder aan de agenda. </t>
+  </si>
+  <si>
+    <t>Ik heb gisteren alle pagina's de huisstyling en content nalopen en samen met Bruno een blok met de instructeurs gemaakt.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik met Bruno op alle pagina's de huisstyling en content nalopen. En we gaan een blok maken met de instructeurs op de over ons pagina.</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -345,14 +345,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -635,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AXW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,135 +639,70 @@
     <col min="3" max="3" width="48.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="11"/>
-    <col min="8" max="8" width="21.5703125" style="12" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="11"/>
-    <col min="11" max="11" width="21.5703125" style="12" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="11"/>
-    <col min="14" max="14" width="21.5703125" style="12" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="11"/>
-    <col min="17" max="17" width="21.5703125" style="12" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="11"/>
-    <col min="20" max="20" width="21.5703125" style="12" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="11"/>
-    <col min="23" max="23" width="21.5703125" style="12" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="11"/>
-    <col min="26" max="26" width="21.5703125" style="12" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="11"/>
-    <col min="29" max="29" width="21.5703125" style="12" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="11"/>
-    <col min="32" max="32" width="21.5703125" style="12" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="11"/>
-    <col min="35" max="35" width="21.5703125" style="12" customWidth="1"/>
-    <col min="36" max="37" width="9.140625" style="11"/>
-    <col min="38" max="38" width="21.5703125" style="12" customWidth="1"/>
-    <col min="39" max="40" width="9.140625" style="11"/>
-    <col min="41" max="41" width="21.5703125" style="12" customWidth="1"/>
-    <col min="42" max="43" width="9.140625" style="11"/>
-    <col min="44" max="44" width="21.5703125" style="12" customWidth="1"/>
-    <col min="45" max="46" width="9.140625" style="11"/>
-    <col min="47" max="47" width="21.5703125" style="12" customWidth="1"/>
-    <col min="48" max="49" width="9.140625" style="11"/>
-    <col min="50" max="50" width="21.5703125" style="12" customWidth="1"/>
-    <col min="51" max="52" width="9.140625" style="11"/>
-    <col min="53" max="53" width="21.5703125" style="12" customWidth="1"/>
-    <col min="54" max="55" width="9.140625" style="11"/>
-    <col min="56" max="56" width="21.5703125" style="12" customWidth="1"/>
-    <col min="57" max="58" width="9.140625" style="11"/>
-    <col min="59" max="59" width="21.5703125" style="12" customWidth="1"/>
-    <col min="60" max="61" width="9.140625" style="11"/>
-    <col min="62" max="62" width="21.5703125" style="12" customWidth="1"/>
-    <col min="63" max="64" width="9.140625" style="11"/>
-    <col min="65" max="65" width="21.5703125" style="12" customWidth="1"/>
-    <col min="66" max="67" width="9.140625" style="11"/>
-    <col min="68" max="68" width="21.5703125" style="12" customWidth="1"/>
-    <col min="69" max="70" width="9.140625" style="11"/>
-    <col min="71" max="71" width="21.5703125" style="12" customWidth="1"/>
-    <col min="72" max="73" width="9.140625" style="11"/>
-    <col min="74" max="74" width="21.5703125" style="12" customWidth="1"/>
-    <col min="75" max="76" width="9.140625" style="11"/>
-    <col min="77" max="77" width="21.5703125" style="12" customWidth="1"/>
-    <col min="78" max="79" width="9.140625" style="11"/>
-    <col min="80" max="80" width="21.5703125" style="12" customWidth="1"/>
-    <col min="81" max="82" width="9.140625" style="11"/>
-    <col min="83" max="83" width="21.5703125" style="12" customWidth="1"/>
-    <col min="84" max="85" width="9.140625" style="11"/>
-    <col min="86" max="86" width="21.5703125" style="12" customWidth="1"/>
-    <col min="87" max="88" width="9.140625" style="11"/>
-    <col min="89" max="89" width="21.5703125" style="12" customWidth="1"/>
-    <col min="90" max="91" width="9.140625" style="11"/>
-    <col min="92" max="92" width="21.5703125" style="12" customWidth="1"/>
-    <col min="93" max="94" width="9.140625" style="11"/>
-    <col min="95" max="95" width="21.5703125" style="12" customWidth="1"/>
-    <col min="96" max="97" width="9.140625" style="11"/>
-    <col min="98" max="98" width="21.5703125" style="12" customWidth="1"/>
-    <col min="99" max="100" width="9.140625" style="11"/>
-    <col min="101" max="101" width="21.5703125" style="12" customWidth="1"/>
-    <col min="102" max="103" width="9.140625" style="11"/>
-    <col min="104" max="104" width="21.5703125" style="12" customWidth="1"/>
-    <col min="105" max="106" width="9.140625" style="11"/>
-    <col min="107" max="107" width="21.5703125" style="12" customWidth="1"/>
-    <col min="108" max="109" width="9.140625" style="11"/>
-    <col min="110" max="110" width="21.5703125" style="12" customWidth="1"/>
-    <col min="111" max="112" width="9.140625" style="11"/>
-    <col min="113" max="113" width="21.5703125" style="12" customWidth="1"/>
-    <col min="114" max="115" width="9.140625" style="11"/>
-    <col min="116" max="116" width="21.5703125" style="12" customWidth="1"/>
-    <col min="117" max="118" width="9.140625" style="11"/>
-    <col min="119" max="119" width="21.5703125" style="12" customWidth="1"/>
-    <col min="120" max="121" width="9.140625" style="11"/>
-    <col min="122" max="122" width="21.5703125" style="12" customWidth="1"/>
-    <col min="123" max="124" width="9.140625" style="11"/>
-    <col min="125" max="125" width="21.5703125" style="12" customWidth="1"/>
-    <col min="126" max="127" width="9.140625" style="11"/>
-    <col min="128" max="128" width="21.5703125" style="12" customWidth="1"/>
-    <col min="129" max="130" width="9.140625" style="11"/>
-    <col min="131" max="131" width="21.5703125" style="12" customWidth="1"/>
-    <col min="132" max="133" width="9.140625" style="11"/>
-    <col min="134" max="134" width="21.5703125" style="12" customWidth="1"/>
-    <col min="135" max="136" width="9.140625" style="11"/>
-    <col min="137" max="137" width="21.5703125" style="12" customWidth="1"/>
-    <col min="138" max="139" width="9.140625" style="11"/>
-    <col min="140" max="140" width="21.5703125" style="12" customWidth="1"/>
-    <col min="141" max="142" width="9.140625" style="11"/>
-    <col min="143" max="143" width="21.5703125" style="12" customWidth="1"/>
-    <col min="144" max="145" width="9.140625" style="11"/>
-    <col min="146" max="146" width="21.5703125" style="12" customWidth="1"/>
-    <col min="147" max="148" width="9.140625" style="11"/>
-    <col min="149" max="149" width="21.5703125" style="12" customWidth="1"/>
-    <col min="150" max="151" width="9.140625" style="11"/>
-    <col min="152" max="152" width="21.5703125" style="12" customWidth="1"/>
-    <col min="153" max="154" width="9.140625" style="11"/>
-    <col min="155" max="155" width="21.5703125" style="12" customWidth="1"/>
-    <col min="156" max="157" width="9.140625" style="11"/>
-    <col min="158" max="158" width="21.5703125" style="12" customWidth="1"/>
-    <col min="159" max="160" width="9.140625" style="11"/>
-    <col min="161" max="161" width="21.5703125" style="12" customWidth="1"/>
-    <col min="162" max="163" width="9.140625" style="11"/>
-    <col min="164" max="164" width="21.5703125" style="12" customWidth="1"/>
-    <col min="165" max="166" width="9.140625" style="11"/>
-    <col min="167" max="167" width="21.5703125" style="12" customWidth="1"/>
-    <col min="168" max="169" width="9.140625" style="11"/>
-    <col min="170" max="170" width="21.5703125" style="12" customWidth="1"/>
-    <col min="171" max="172" width="9.140625" style="11"/>
-    <col min="173" max="173" width="21.5703125" style="12" customWidth="1"/>
-    <col min="174" max="175" width="9.140625" style="11"/>
-    <col min="176" max="176" width="21.5703125" style="12" customWidth="1"/>
-    <col min="177" max="178" width="9.140625" style="11"/>
-    <col min="179" max="179" width="21.5703125" style="12" customWidth="1"/>
-    <col min="180" max="181" width="9.140625" style="11"/>
-    <col min="182" max="182" width="21.5703125" style="12" customWidth="1"/>
-    <col min="183" max="184" width="9.140625" style="11"/>
-    <col min="185" max="185" width="21.5703125" style="12" customWidth="1"/>
-    <col min="186" max="187" width="9.140625" style="11"/>
-    <col min="188" max="188" width="21.5703125" style="12" customWidth="1"/>
-    <col min="189" max="190" width="9.140625" style="11"/>
-    <col min="191" max="191" width="21.5703125" style="12" customWidth="1"/>
-    <col min="192" max="193" width="9.140625" style="11"/>
-    <col min="194" max="194" width="21.5703125" style="12" customWidth="1"/>
-    <col min="195" max="196" width="9.140625" style="11"/>
-    <col min="197" max="197" width="21.5703125" style="12" customWidth="1"/>
-    <col min="198" max="198" width="9.140625" style="11"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.5703125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="21.5703125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="21.5703125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="21.5703125" style="2" customWidth="1"/>
+    <col min="44" max="44" width="21.5703125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="21.5703125" style="2" customWidth="1"/>
+    <col min="50" max="50" width="21.5703125" style="2" customWidth="1"/>
+    <col min="53" max="53" width="21.5703125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="21.5703125" style="2" customWidth="1"/>
+    <col min="59" max="59" width="21.5703125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="21.5703125" style="2" customWidth="1"/>
+    <col min="65" max="65" width="21.5703125" style="2" customWidth="1"/>
+    <col min="68" max="68" width="21.5703125" style="2" customWidth="1"/>
+    <col min="71" max="71" width="21.5703125" style="2" customWidth="1"/>
+    <col min="74" max="74" width="21.5703125" style="2" customWidth="1"/>
+    <col min="77" max="77" width="21.5703125" style="2" customWidth="1"/>
+    <col min="80" max="80" width="21.5703125" style="2" customWidth="1"/>
+    <col min="83" max="83" width="21.5703125" style="2" customWidth="1"/>
+    <col min="86" max="86" width="21.5703125" style="2" customWidth="1"/>
+    <col min="89" max="89" width="21.5703125" style="2" customWidth="1"/>
+    <col min="92" max="92" width="21.5703125" style="2" customWidth="1"/>
+    <col min="95" max="95" width="21.5703125" style="2" customWidth="1"/>
+    <col min="98" max="98" width="21.5703125" style="2" customWidth="1"/>
+    <col min="101" max="101" width="21.5703125" style="2" customWidth="1"/>
+    <col min="104" max="104" width="21.5703125" style="2" customWidth="1"/>
+    <col min="107" max="107" width="21.5703125" style="2" customWidth="1"/>
+    <col min="110" max="110" width="21.5703125" style="2" customWidth="1"/>
+    <col min="113" max="113" width="21.5703125" style="2" customWidth="1"/>
+    <col min="116" max="116" width="21.5703125" style="2" customWidth="1"/>
+    <col min="119" max="119" width="21.5703125" style="2" customWidth="1"/>
+    <col min="122" max="122" width="21.5703125" style="2" customWidth="1"/>
+    <col min="125" max="125" width="21.5703125" style="2" customWidth="1"/>
+    <col min="128" max="128" width="21.5703125" style="2" customWidth="1"/>
+    <col min="131" max="131" width="21.5703125" style="2" customWidth="1"/>
+    <col min="134" max="134" width="21.5703125" style="2" customWidth="1"/>
+    <col min="137" max="137" width="21.5703125" style="2" customWidth="1"/>
+    <col min="140" max="140" width="21.5703125" style="2" customWidth="1"/>
+    <col min="143" max="143" width="21.5703125" style="2" customWidth="1"/>
+    <col min="146" max="146" width="21.5703125" style="2" customWidth="1"/>
+    <col min="149" max="149" width="21.5703125" style="2" customWidth="1"/>
+    <col min="152" max="152" width="21.5703125" style="2" customWidth="1"/>
+    <col min="155" max="155" width="21.5703125" style="2" customWidth="1"/>
+    <col min="158" max="158" width="21.5703125" style="2" customWidth="1"/>
+    <col min="161" max="161" width="21.5703125" style="2" customWidth="1"/>
+    <col min="164" max="164" width="21.5703125" style="2" customWidth="1"/>
+    <col min="167" max="167" width="21.5703125" style="2" customWidth="1"/>
+    <col min="170" max="170" width="21.5703125" style="2" customWidth="1"/>
+    <col min="173" max="173" width="21.5703125" style="2" customWidth="1"/>
+    <col min="176" max="176" width="21.5703125" style="2" customWidth="1"/>
+    <col min="179" max="179" width="21.5703125" style="2" customWidth="1"/>
+    <col min="182" max="182" width="21.5703125" style="2" customWidth="1"/>
+    <col min="185" max="185" width="21.5703125" style="2" customWidth="1"/>
+    <col min="188" max="188" width="21.5703125" style="2" customWidth="1"/>
+    <col min="191" max="191" width="21.5703125" style="2" customWidth="1"/>
+    <col min="194" max="194" width="21.5703125" style="2" customWidth="1"/>
+    <col min="197" max="197" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1323" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -793,196 +721,196 @@
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="N1" s="8"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="8"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="10"/>
+      <c r="T1" s="8"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
-      <c r="W1" s="10"/>
+      <c r="W1" s="8"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="10"/>
+      <c r="Z1" s="8"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
-      <c r="AC1" s="10"/>
+      <c r="AC1" s="8"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
-      <c r="AF1" s="10"/>
+      <c r="AF1" s="8"/>
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
-      <c r="AI1" s="10"/>
+      <c r="AI1" s="8"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
-      <c r="AL1" s="10"/>
+      <c r="AL1" s="8"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="9"/>
-      <c r="AO1" s="10"/>
+      <c r="AO1" s="8"/>
       <c r="AP1" s="9"/>
       <c r="AQ1" s="9"/>
-      <c r="AR1" s="10"/>
+      <c r="AR1" s="8"/>
       <c r="AS1" s="9"/>
       <c r="AT1" s="9"/>
-      <c r="AU1" s="10"/>
+      <c r="AU1" s="8"/>
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
-      <c r="AX1" s="10"/>
+      <c r="AX1" s="8"/>
       <c r="AY1" s="9"/>
       <c r="AZ1" s="9"/>
-      <c r="BA1" s="10"/>
+      <c r="BA1" s="8"/>
       <c r="BB1" s="9"/>
       <c r="BC1" s="9"/>
-      <c r="BD1" s="10"/>
+      <c r="BD1" s="8"/>
       <c r="BE1" s="9"/>
       <c r="BF1" s="9"/>
-      <c r="BG1" s="10"/>
+      <c r="BG1" s="8"/>
       <c r="BH1" s="9"/>
       <c r="BI1" s="9"/>
-      <c r="BJ1" s="10"/>
+      <c r="BJ1" s="8"/>
       <c r="BK1" s="9"/>
       <c r="BL1" s="9"/>
-      <c r="BM1" s="10"/>
+      <c r="BM1" s="8"/>
       <c r="BN1" s="9"/>
       <c r="BO1" s="9"/>
-      <c r="BP1" s="10"/>
+      <c r="BP1" s="8"/>
       <c r="BQ1" s="9"/>
       <c r="BR1" s="9"/>
-      <c r="BS1" s="10"/>
+      <c r="BS1" s="8"/>
       <c r="BT1" s="9"/>
       <c r="BU1" s="9"/>
-      <c r="BV1" s="10"/>
+      <c r="BV1" s="8"/>
       <c r="BW1" s="9"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="10"/>
+      <c r="BY1" s="8"/>
       <c r="BZ1" s="9"/>
       <c r="CA1" s="9"/>
-      <c r="CB1" s="10"/>
+      <c r="CB1" s="8"/>
       <c r="CC1" s="9"/>
       <c r="CD1" s="9"/>
-      <c r="CE1" s="10"/>
+      <c r="CE1" s="8"/>
       <c r="CF1" s="9"/>
       <c r="CG1" s="9"/>
-      <c r="CH1" s="10"/>
+      <c r="CH1" s="8"/>
       <c r="CI1" s="9"/>
       <c r="CJ1" s="9"/>
-      <c r="CK1" s="10"/>
+      <c r="CK1" s="8"/>
       <c r="CL1" s="9"/>
       <c r="CM1" s="9"/>
-      <c r="CN1" s="10"/>
+      <c r="CN1" s="8"/>
       <c r="CO1" s="9"/>
       <c r="CP1" s="9"/>
-      <c r="CQ1" s="10"/>
+      <c r="CQ1" s="8"/>
       <c r="CR1" s="9"/>
       <c r="CS1" s="9"/>
-      <c r="CT1" s="10"/>
+      <c r="CT1" s="8"/>
       <c r="CU1" s="9"/>
       <c r="CV1" s="9"/>
-      <c r="CW1" s="10"/>
+      <c r="CW1" s="8"/>
       <c r="CX1" s="9"/>
       <c r="CY1" s="9"/>
-      <c r="CZ1" s="10"/>
+      <c r="CZ1" s="8"/>
       <c r="DA1" s="9"/>
       <c r="DB1" s="9"/>
-      <c r="DC1" s="10"/>
+      <c r="DC1" s="8"/>
       <c r="DD1" s="9"/>
       <c r="DE1" s="9"/>
-      <c r="DF1" s="10"/>
+      <c r="DF1" s="8"/>
       <c r="DG1" s="9"/>
       <c r="DH1" s="9"/>
-      <c r="DI1" s="10"/>
+      <c r="DI1" s="8"/>
       <c r="DJ1" s="9"/>
       <c r="DK1" s="9"/>
-      <c r="DL1" s="10"/>
+      <c r="DL1" s="8"/>
       <c r="DM1" s="9"/>
       <c r="DN1" s="9"/>
-      <c r="DO1" s="10"/>
+      <c r="DO1" s="8"/>
       <c r="DP1" s="9"/>
       <c r="DQ1" s="9"/>
-      <c r="DR1" s="10"/>
+      <c r="DR1" s="8"/>
       <c r="DS1" s="9"/>
       <c r="DT1" s="9"/>
-      <c r="DU1" s="10"/>
+      <c r="DU1" s="8"/>
       <c r="DV1" s="9"/>
       <c r="DW1" s="9"/>
-      <c r="DX1" s="10"/>
+      <c r="DX1" s="8"/>
       <c r="DY1" s="9"/>
       <c r="DZ1" s="9"/>
-      <c r="EA1" s="10"/>
+      <c r="EA1" s="8"/>
       <c r="EB1" s="9"/>
       <c r="EC1" s="9"/>
-      <c r="ED1" s="10"/>
+      <c r="ED1" s="8"/>
       <c r="EE1" s="9"/>
       <c r="EF1" s="9"/>
-      <c r="EG1" s="10"/>
+      <c r="EG1" s="8"/>
       <c r="EH1" s="9"/>
       <c r="EI1" s="9"/>
-      <c r="EJ1" s="10"/>
+      <c r="EJ1" s="8"/>
       <c r="EK1" s="9"/>
       <c r="EL1" s="9"/>
-      <c r="EM1" s="10"/>
+      <c r="EM1" s="8"/>
       <c r="EN1" s="9"/>
       <c r="EO1" s="9"/>
-      <c r="EP1" s="10"/>
+      <c r="EP1" s="8"/>
       <c r="EQ1" s="9"/>
       <c r="ER1" s="9"/>
-      <c r="ES1" s="10"/>
+      <c r="ES1" s="8"/>
       <c r="ET1" s="9"/>
       <c r="EU1" s="9"/>
-      <c r="EV1" s="10"/>
+      <c r="EV1" s="8"/>
       <c r="EW1" s="9"/>
       <c r="EX1" s="9"/>
-      <c r="EY1" s="10"/>
+      <c r="EY1" s="8"/>
       <c r="EZ1" s="9"/>
       <c r="FA1" s="9"/>
-      <c r="FB1" s="10"/>
+      <c r="FB1" s="8"/>
       <c r="FC1" s="9"/>
       <c r="FD1" s="9"/>
-      <c r="FE1" s="10"/>
+      <c r="FE1" s="8"/>
       <c r="FF1" s="9"/>
       <c r="FG1" s="9"/>
-      <c r="FH1" s="10"/>
+      <c r="FH1" s="8"/>
       <c r="FI1" s="9"/>
       <c r="FJ1" s="9"/>
-      <c r="FK1" s="10"/>
+      <c r="FK1" s="8"/>
       <c r="FL1" s="9"/>
       <c r="FM1" s="9"/>
-      <c r="FN1" s="10"/>
+      <c r="FN1" s="8"/>
       <c r="FO1" s="9"/>
       <c r="FP1" s="9"/>
-      <c r="FQ1" s="10"/>
+      <c r="FQ1" s="8"/>
       <c r="FR1" s="9"/>
       <c r="FS1" s="9"/>
-      <c r="FT1" s="10"/>
+      <c r="FT1" s="8"/>
       <c r="FU1" s="9"/>
       <c r="FV1" s="9"/>
-      <c r="FW1" s="10"/>
+      <c r="FW1" s="8"/>
       <c r="FX1" s="9"/>
       <c r="FY1" s="9"/>
-      <c r="FZ1" s="10"/>
+      <c r="FZ1" s="8"/>
       <c r="GA1" s="9"/>
       <c r="GB1" s="9"/>
-      <c r="GC1" s="10"/>
+      <c r="GC1" s="8"/>
       <c r="GD1" s="9"/>
       <c r="GE1" s="9"/>
-      <c r="GF1" s="10"/>
+      <c r="GF1" s="8"/>
       <c r="GG1" s="9"/>
       <c r="GH1" s="9"/>
-      <c r="GI1" s="10"/>
+      <c r="GI1" s="8"/>
       <c r="GJ1" s="9"/>
       <c r="GK1" s="9"/>
-      <c r="GL1" s="10"/>
+      <c r="GL1" s="8"/>
       <c r="GM1" s="9"/>
       <c r="GN1" s="9"/>
-      <c r="GO1" s="10"/>
+      <c r="GO1" s="8"/>
       <c r="GP1" s="9"/>
       <c r="GQ1" s="9"/>
       <c r="GR1" s="9"/>
@@ -2124,199 +2052,199 @@
         <v>17</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="12"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="12"/>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="12"/>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="12"/>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="12"/>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="11"/>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="11"/>
-      <c r="FD2" s="11"/>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="11"/>
-      <c r="FG2" s="11"/>
-      <c r="FH2" s="12"/>
-      <c r="FI2" s="11"/>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="11"/>
-      <c r="FM2" s="11"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="11"/>
-      <c r="FP2" s="11"/>
-      <c r="FQ2" s="12"/>
-      <c r="FR2" s="11"/>
-      <c r="FS2" s="11"/>
-      <c r="FT2" s="12"/>
-      <c r="FU2" s="11"/>
-      <c r="FV2" s="11"/>
-      <c r="FW2" s="12"/>
-      <c r="FX2" s="11"/>
-      <c r="FY2" s="11"/>
-      <c r="FZ2" s="12"/>
-      <c r="GA2" s="11"/>
-      <c r="GB2" s="11"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="11"/>
-      <c r="GE2" s="11"/>
-      <c r="GF2" s="12"/>
-      <c r="GG2" s="11"/>
-      <c r="GH2" s="11"/>
-      <c r="GI2" s="12"/>
-      <c r="GJ2" s="11"/>
-      <c r="GK2" s="11"/>
-      <c r="GL2" s="12"/>
-      <c r="GM2" s="11"/>
-      <c r="GN2" s="11"/>
-      <c r="GO2" s="12"/>
-      <c r="GP2" s="11"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" s="2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" s="2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2" s="2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2" s="2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2" s="2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2" s="2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2" s="2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2" s="2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2" s="2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2" s="2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2" s="2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2" s="2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2" s="2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2" s="2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2" s="2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2" s="2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2" s="2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2" s="2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2" s="2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2" s="2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2" s="2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2" s="2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2" s="2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2" s="2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2" s="2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2" s="2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2" s="2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2" s="2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2" s="2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2" s="2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2" s="2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2" s="2"/>
+      <c r="GP2"/>
       <c r="GQ2" s="9"/>
       <c r="GR2" s="9"/>
       <c r="GS2" s="9"/>
@@ -3457,199 +3385,199 @@
         <v>18</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="12"/>
-      <c r="BW3" s="11"/>
-      <c r="BX3" s="11"/>
-      <c r="BY3" s="12"/>
-      <c r="BZ3" s="11"/>
-      <c r="CA3" s="11"/>
-      <c r="CB3" s="12"/>
-      <c r="CC3" s="11"/>
-      <c r="CD3" s="11"/>
-      <c r="CE3" s="12"/>
-      <c r="CF3" s="11"/>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="12"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="12"/>
-      <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="12"/>
-      <c r="CO3" s="11"/>
-      <c r="CP3" s="11"/>
-      <c r="CQ3" s="12"/>
-      <c r="CR3" s="11"/>
-      <c r="CS3" s="11"/>
-      <c r="CT3" s="12"/>
-      <c r="CU3" s="11"/>
-      <c r="CV3" s="11"/>
-      <c r="CW3" s="12"/>
-      <c r="CX3" s="11"/>
-      <c r="CY3" s="11"/>
-      <c r="CZ3" s="12"/>
-      <c r="DA3" s="11"/>
-      <c r="DB3" s="11"/>
-      <c r="DC3" s="12"/>
-      <c r="DD3" s="11"/>
-      <c r="DE3" s="11"/>
-      <c r="DF3" s="12"/>
-      <c r="DG3" s="11"/>
-      <c r="DH3" s="11"/>
-      <c r="DI3" s="12"/>
-      <c r="DJ3" s="11"/>
-      <c r="DK3" s="11"/>
-      <c r="DL3" s="12"/>
-      <c r="DM3" s="11"/>
-      <c r="DN3" s="11"/>
-      <c r="DO3" s="12"/>
-      <c r="DP3" s="11"/>
-      <c r="DQ3" s="11"/>
-      <c r="DR3" s="12"/>
-      <c r="DS3" s="11"/>
-      <c r="DT3" s="11"/>
-      <c r="DU3" s="12"/>
-      <c r="DV3" s="11"/>
-      <c r="DW3" s="11"/>
-      <c r="DX3" s="12"/>
-      <c r="DY3" s="11"/>
-      <c r="DZ3" s="11"/>
-      <c r="EA3" s="12"/>
-      <c r="EB3" s="11"/>
-      <c r="EC3" s="11"/>
-      <c r="ED3" s="12"/>
-      <c r="EE3" s="11"/>
-      <c r="EF3" s="11"/>
-      <c r="EG3" s="12"/>
-      <c r="EH3" s="11"/>
-      <c r="EI3" s="11"/>
-      <c r="EJ3" s="12"/>
-      <c r="EK3" s="11"/>
-      <c r="EL3" s="11"/>
-      <c r="EM3" s="12"/>
-      <c r="EN3" s="11"/>
-      <c r="EO3" s="11"/>
-      <c r="EP3" s="12"/>
-      <c r="EQ3" s="11"/>
-      <c r="ER3" s="11"/>
-      <c r="ES3" s="12"/>
-      <c r="ET3" s="11"/>
-      <c r="EU3" s="11"/>
-      <c r="EV3" s="12"/>
-      <c r="EW3" s="11"/>
-      <c r="EX3" s="11"/>
-      <c r="EY3" s="12"/>
-      <c r="EZ3" s="11"/>
-      <c r="FA3" s="11"/>
-      <c r="FB3" s="12"/>
-      <c r="FC3" s="11"/>
-      <c r="FD3" s="11"/>
-      <c r="FE3" s="12"/>
-      <c r="FF3" s="11"/>
-      <c r="FG3" s="11"/>
-      <c r="FH3" s="12"/>
-      <c r="FI3" s="11"/>
-      <c r="FJ3" s="11"/>
-      <c r="FK3" s="12"/>
-      <c r="FL3" s="11"/>
-      <c r="FM3" s="11"/>
-      <c r="FN3" s="12"/>
-      <c r="FO3" s="11"/>
-      <c r="FP3" s="11"/>
-      <c r="FQ3" s="12"/>
-      <c r="FR3" s="11"/>
-      <c r="FS3" s="11"/>
-      <c r="FT3" s="12"/>
-      <c r="FU3" s="11"/>
-      <c r="FV3" s="11"/>
-      <c r="FW3" s="12"/>
-      <c r="FX3" s="11"/>
-      <c r="FY3" s="11"/>
-      <c r="FZ3" s="12"/>
-      <c r="GA3" s="11"/>
-      <c r="GB3" s="11"/>
-      <c r="GC3" s="12"/>
-      <c r="GD3" s="11"/>
-      <c r="GE3" s="11"/>
-      <c r="GF3" s="12"/>
-      <c r="GG3" s="11"/>
-      <c r="GH3" s="11"/>
-      <c r="GI3" s="12"/>
-      <c r="GJ3" s="11"/>
-      <c r="GK3" s="11"/>
-      <c r="GL3" s="12"/>
-      <c r="GM3" s="11"/>
-      <c r="GN3" s="11"/>
-      <c r="GO3" s="12"/>
-      <c r="GP3" s="11"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="2"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="2"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="2"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" s="2"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3" s="2"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3" s="2"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3" s="2"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3" s="2"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3" s="2"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3" s="2"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3" s="2"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3" s="2"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3" s="2"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3" s="2"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3" s="2"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3" s="2"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3" s="2"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3" s="2"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3" s="2"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3" s="2"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3" s="2"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3" s="2"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3" s="2"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3" s="2"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3" s="2"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3" s="2"/>
+      <c r="FR3"/>
+      <c r="FS3"/>
+      <c r="FT3" s="2"/>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3" s="2"/>
+      <c r="FX3"/>
+      <c r="FY3"/>
+      <c r="FZ3" s="2"/>
+      <c r="GA3"/>
+      <c r="GB3"/>
+      <c r="GC3" s="2"/>
+      <c r="GD3"/>
+      <c r="GE3"/>
+      <c r="GF3" s="2"/>
+      <c r="GG3"/>
+      <c r="GH3"/>
+      <c r="GI3" s="2"/>
+      <c r="GJ3"/>
+      <c r="GK3"/>
+      <c r="GL3" s="2"/>
+      <c r="GM3"/>
+      <c r="GN3"/>
+      <c r="GO3" s="2"/>
+      <c r="GP3"/>
       <c r="GQ3" s="9"/>
       <c r="GR3" s="9"/>
       <c r="GS3" s="9"/>
@@ -4790,199 +4718,199 @@
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="12"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="12"/>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="12"/>
-      <c r="CI4" s="11"/>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="12"/>
-      <c r="CL4" s="11"/>
-      <c r="CM4" s="11"/>
-      <c r="CN4" s="12"/>
-      <c r="CO4" s="11"/>
-      <c r="CP4" s="11"/>
-      <c r="CQ4" s="12"/>
-      <c r="CR4" s="11"/>
-      <c r="CS4" s="11"/>
-      <c r="CT4" s="12"/>
-      <c r="CU4" s="11"/>
-      <c r="CV4" s="11"/>
-      <c r="CW4" s="12"/>
-      <c r="CX4" s="11"/>
-      <c r="CY4" s="11"/>
-      <c r="CZ4" s="12"/>
-      <c r="DA4" s="11"/>
-      <c r="DB4" s="11"/>
-      <c r="DC4" s="12"/>
-      <c r="DD4" s="11"/>
-      <c r="DE4" s="11"/>
-      <c r="DF4" s="12"/>
-      <c r="DG4" s="11"/>
-      <c r="DH4" s="11"/>
-      <c r="DI4" s="12"/>
-      <c r="DJ4" s="11"/>
-      <c r="DK4" s="11"/>
-      <c r="DL4" s="12"/>
-      <c r="DM4" s="11"/>
-      <c r="DN4" s="11"/>
-      <c r="DO4" s="12"/>
-      <c r="DP4" s="11"/>
-      <c r="DQ4" s="11"/>
-      <c r="DR4" s="12"/>
-      <c r="DS4" s="11"/>
-      <c r="DT4" s="11"/>
-      <c r="DU4" s="12"/>
-      <c r="DV4" s="11"/>
-      <c r="DW4" s="11"/>
-      <c r="DX4" s="12"/>
-      <c r="DY4" s="11"/>
-      <c r="DZ4" s="11"/>
-      <c r="EA4" s="12"/>
-      <c r="EB4" s="11"/>
-      <c r="EC4" s="11"/>
-      <c r="ED4" s="12"/>
-      <c r="EE4" s="11"/>
-      <c r="EF4" s="11"/>
-      <c r="EG4" s="12"/>
-      <c r="EH4" s="11"/>
-      <c r="EI4" s="11"/>
-      <c r="EJ4" s="12"/>
-      <c r="EK4" s="11"/>
-      <c r="EL4" s="11"/>
-      <c r="EM4" s="12"/>
-      <c r="EN4" s="11"/>
-      <c r="EO4" s="11"/>
-      <c r="EP4" s="12"/>
-      <c r="EQ4" s="11"/>
-      <c r="ER4" s="11"/>
-      <c r="ES4" s="12"/>
-      <c r="ET4" s="11"/>
-      <c r="EU4" s="11"/>
-      <c r="EV4" s="12"/>
-      <c r="EW4" s="11"/>
-      <c r="EX4" s="11"/>
-      <c r="EY4" s="12"/>
-      <c r="EZ4" s="11"/>
-      <c r="FA4" s="11"/>
-      <c r="FB4" s="12"/>
-      <c r="FC4" s="11"/>
-      <c r="FD4" s="11"/>
-      <c r="FE4" s="12"/>
-      <c r="FF4" s="11"/>
-      <c r="FG4" s="11"/>
-      <c r="FH4" s="12"/>
-      <c r="FI4" s="11"/>
-      <c r="FJ4" s="11"/>
-      <c r="FK4" s="12"/>
-      <c r="FL4" s="11"/>
-      <c r="FM4" s="11"/>
-      <c r="FN4" s="12"/>
-      <c r="FO4" s="11"/>
-      <c r="FP4" s="11"/>
-      <c r="FQ4" s="12"/>
-      <c r="FR4" s="11"/>
-      <c r="FS4" s="11"/>
-      <c r="FT4" s="12"/>
-      <c r="FU4" s="11"/>
-      <c r="FV4" s="11"/>
-      <c r="FW4" s="12"/>
-      <c r="FX4" s="11"/>
-      <c r="FY4" s="11"/>
-      <c r="FZ4" s="12"/>
-      <c r="GA4" s="11"/>
-      <c r="GB4" s="11"/>
-      <c r="GC4" s="12"/>
-      <c r="GD4" s="11"/>
-      <c r="GE4" s="11"/>
-      <c r="GF4" s="12"/>
-      <c r="GG4" s="11"/>
-      <c r="GH4" s="11"/>
-      <c r="GI4" s="12"/>
-      <c r="GJ4" s="11"/>
-      <c r="GK4" s="11"/>
-      <c r="GL4" s="12"/>
-      <c r="GM4" s="11"/>
-      <c r="GN4" s="11"/>
-      <c r="GO4" s="12"/>
-      <c r="GP4" s="11"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" s="2"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" s="2"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" s="2"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" s="2"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" s="2"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4" s="2"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4" s="2"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4" s="2"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4" s="2"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4" s="2"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4" s="2"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4" s="2"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4" s="2"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4" s="2"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4" s="2"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4" s="2"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4" s="2"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4" s="2"/>
+      <c r="GP4"/>
       <c r="GQ4" s="9"/>
       <c r="GR4" s="9"/>
       <c r="GS4" s="9"/>
@@ -6125,196 +6053,196 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="10"/>
+      <c r="W5" s="8"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="8"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="10"/>
+      <c r="AC5" s="8"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="8"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="10"/>
+      <c r="AI5" s="8"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="10"/>
+      <c r="AL5" s="8"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
-      <c r="AO5" s="10"/>
+      <c r="AO5" s="8"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
-      <c r="AR5" s="10"/>
+      <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
-      <c r="AU5" s="10"/>
+      <c r="AU5" s="8"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
-      <c r="AX5" s="10"/>
+      <c r="AX5" s="8"/>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
-      <c r="BA5" s="10"/>
+      <c r="BA5" s="8"/>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9"/>
-      <c r="BD5" s="10"/>
+      <c r="BD5" s="8"/>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
-      <c r="BG5" s="10"/>
+      <c r="BG5" s="8"/>
       <c r="BH5" s="9"/>
       <c r="BI5" s="9"/>
-      <c r="BJ5" s="10"/>
+      <c r="BJ5" s="8"/>
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
-      <c r="BM5" s="10"/>
+      <c r="BM5" s="8"/>
       <c r="BN5" s="9"/>
       <c r="BO5" s="9"/>
-      <c r="BP5" s="10"/>
+      <c r="BP5" s="8"/>
       <c r="BQ5" s="9"/>
       <c r="BR5" s="9"/>
-      <c r="BS5" s="10"/>
+      <c r="BS5" s="8"/>
       <c r="BT5" s="9"/>
       <c r="BU5" s="9"/>
-      <c r="BV5" s="10"/>
+      <c r="BV5" s="8"/>
       <c r="BW5" s="9"/>
       <c r="BX5" s="9"/>
-      <c r="BY5" s="10"/>
+      <c r="BY5" s="8"/>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9"/>
-      <c r="CB5" s="10"/>
+      <c r="CB5" s="8"/>
       <c r="CC5" s="9"/>
       <c r="CD5" s="9"/>
-      <c r="CE5" s="10"/>
+      <c r="CE5" s="8"/>
       <c r="CF5" s="9"/>
       <c r="CG5" s="9"/>
-      <c r="CH5" s="10"/>
+      <c r="CH5" s="8"/>
       <c r="CI5" s="9"/>
       <c r="CJ5" s="9"/>
-      <c r="CK5" s="10"/>
+      <c r="CK5" s="8"/>
       <c r="CL5" s="9"/>
       <c r="CM5" s="9"/>
-      <c r="CN5" s="10"/>
+      <c r="CN5" s="8"/>
       <c r="CO5" s="9"/>
       <c r="CP5" s="9"/>
-      <c r="CQ5" s="10"/>
+      <c r="CQ5" s="8"/>
       <c r="CR5" s="9"/>
       <c r="CS5" s="9"/>
-      <c r="CT5" s="10"/>
+      <c r="CT5" s="8"/>
       <c r="CU5" s="9"/>
       <c r="CV5" s="9"/>
-      <c r="CW5" s="10"/>
+      <c r="CW5" s="8"/>
       <c r="CX5" s="9"/>
       <c r="CY5" s="9"/>
-      <c r="CZ5" s="10"/>
+      <c r="CZ5" s="8"/>
       <c r="DA5" s="9"/>
       <c r="DB5" s="9"/>
-      <c r="DC5" s="10"/>
+      <c r="DC5" s="8"/>
       <c r="DD5" s="9"/>
       <c r="DE5" s="9"/>
-      <c r="DF5" s="10"/>
+      <c r="DF5" s="8"/>
       <c r="DG5" s="9"/>
       <c r="DH5" s="9"/>
-      <c r="DI5" s="10"/>
+      <c r="DI5" s="8"/>
       <c r="DJ5" s="9"/>
       <c r="DK5" s="9"/>
-      <c r="DL5" s="10"/>
+      <c r="DL5" s="8"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="9"/>
-      <c r="DO5" s="10"/>
+      <c r="DO5" s="8"/>
       <c r="DP5" s="9"/>
       <c r="DQ5" s="9"/>
-      <c r="DR5" s="10"/>
+      <c r="DR5" s="8"/>
       <c r="DS5" s="9"/>
       <c r="DT5" s="9"/>
-      <c r="DU5" s="10"/>
+      <c r="DU5" s="8"/>
       <c r="DV5" s="9"/>
       <c r="DW5" s="9"/>
-      <c r="DX5" s="10"/>
+      <c r="DX5" s="8"/>
       <c r="DY5" s="9"/>
       <c r="DZ5" s="9"/>
-      <c r="EA5" s="10"/>
+      <c r="EA5" s="8"/>
       <c r="EB5" s="9"/>
       <c r="EC5" s="9"/>
-      <c r="ED5" s="10"/>
+      <c r="ED5" s="8"/>
       <c r="EE5" s="9"/>
       <c r="EF5" s="9"/>
-      <c r="EG5" s="10"/>
+      <c r="EG5" s="8"/>
       <c r="EH5" s="9"/>
       <c r="EI5" s="9"/>
-      <c r="EJ5" s="10"/>
+      <c r="EJ5" s="8"/>
       <c r="EK5" s="9"/>
       <c r="EL5" s="9"/>
-      <c r="EM5" s="10"/>
+      <c r="EM5" s="8"/>
       <c r="EN5" s="9"/>
       <c r="EO5" s="9"/>
-      <c r="EP5" s="10"/>
+      <c r="EP5" s="8"/>
       <c r="EQ5" s="9"/>
       <c r="ER5" s="9"/>
-      <c r="ES5" s="10"/>
+      <c r="ES5" s="8"/>
       <c r="ET5" s="9"/>
       <c r="EU5" s="9"/>
-      <c r="EV5" s="10"/>
+      <c r="EV5" s="8"/>
       <c r="EW5" s="9"/>
       <c r="EX5" s="9"/>
-      <c r="EY5" s="10"/>
+      <c r="EY5" s="8"/>
       <c r="EZ5" s="9"/>
       <c r="FA5" s="9"/>
-      <c r="FB5" s="10"/>
+      <c r="FB5" s="8"/>
       <c r="FC5" s="9"/>
       <c r="FD5" s="9"/>
-      <c r="FE5" s="10"/>
+      <c r="FE5" s="8"/>
       <c r="FF5" s="9"/>
       <c r="FG5" s="9"/>
-      <c r="FH5" s="10"/>
+      <c r="FH5" s="8"/>
       <c r="FI5" s="9"/>
       <c r="FJ5" s="9"/>
-      <c r="FK5" s="10"/>
+      <c r="FK5" s="8"/>
       <c r="FL5" s="9"/>
       <c r="FM5" s="9"/>
-      <c r="FN5" s="10"/>
+      <c r="FN5" s="8"/>
       <c r="FO5" s="9"/>
       <c r="FP5" s="9"/>
-      <c r="FQ5" s="10"/>
+      <c r="FQ5" s="8"/>
       <c r="FR5" s="9"/>
       <c r="FS5" s="9"/>
-      <c r="FT5" s="10"/>
+      <c r="FT5" s="8"/>
       <c r="FU5" s="9"/>
       <c r="FV5" s="9"/>
-      <c r="FW5" s="10"/>
+      <c r="FW5" s="8"/>
       <c r="FX5" s="9"/>
       <c r="FY5" s="9"/>
-      <c r="FZ5" s="10"/>
+      <c r="FZ5" s="8"/>
       <c r="GA5" s="9"/>
       <c r="GB5" s="9"/>
-      <c r="GC5" s="10"/>
+      <c r="GC5" s="8"/>
       <c r="GD5" s="9"/>
       <c r="GE5" s="9"/>
-      <c r="GF5" s="10"/>
+      <c r="GF5" s="8"/>
       <c r="GG5" s="9"/>
       <c r="GH5" s="9"/>
-      <c r="GI5" s="10"/>
+      <c r="GI5" s="8"/>
       <c r="GJ5" s="9"/>
       <c r="GK5" s="9"/>
-      <c r="GL5" s="10"/>
+      <c r="GL5" s="8"/>
       <c r="GM5" s="9"/>
       <c r="GN5" s="9"/>
-      <c r="GO5" s="10"/>
+      <c r="GO5" s="8"/>
       <c r="GP5" s="9"/>
       <c r="GQ5" s="9"/>
       <c r="GR5" s="9"/>
@@ -7456,199 +7384,199 @@
         <v>19</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="11"/>
-      <c r="CE6" s="12"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="11"/>
-      <c r="CJ6" s="11"/>
-      <c r="CK6" s="12"/>
-      <c r="CL6" s="11"/>
-      <c r="CM6" s="11"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="11"/>
-      <c r="CP6" s="11"/>
-      <c r="CQ6" s="12"/>
-      <c r="CR6" s="11"/>
-      <c r="CS6" s="11"/>
-      <c r="CT6" s="12"/>
-      <c r="CU6" s="11"/>
-      <c r="CV6" s="11"/>
-      <c r="CW6" s="12"/>
-      <c r="CX6" s="11"/>
-      <c r="CY6" s="11"/>
-      <c r="CZ6" s="12"/>
-      <c r="DA6" s="11"/>
-      <c r="DB6" s="11"/>
-      <c r="DC6" s="12"/>
-      <c r="DD6" s="11"/>
-      <c r="DE6" s="11"/>
-      <c r="DF6" s="12"/>
-      <c r="DG6" s="11"/>
-      <c r="DH6" s="11"/>
-      <c r="DI6" s="12"/>
-      <c r="DJ6" s="11"/>
-      <c r="DK6" s="11"/>
-      <c r="DL6" s="12"/>
-      <c r="DM6" s="11"/>
-      <c r="DN6" s="11"/>
-      <c r="DO6" s="12"/>
-      <c r="DP6" s="11"/>
-      <c r="DQ6" s="11"/>
-      <c r="DR6" s="12"/>
-      <c r="DS6" s="11"/>
-      <c r="DT6" s="11"/>
-      <c r="DU6" s="12"/>
-      <c r="DV6" s="11"/>
-      <c r="DW6" s="11"/>
-      <c r="DX6" s="12"/>
-      <c r="DY6" s="11"/>
-      <c r="DZ6" s="11"/>
-      <c r="EA6" s="12"/>
-      <c r="EB6" s="11"/>
-      <c r="EC6" s="11"/>
-      <c r="ED6" s="12"/>
-      <c r="EE6" s="11"/>
-      <c r="EF6" s="11"/>
-      <c r="EG6" s="12"/>
-      <c r="EH6" s="11"/>
-      <c r="EI6" s="11"/>
-      <c r="EJ6" s="12"/>
-      <c r="EK6" s="11"/>
-      <c r="EL6" s="11"/>
-      <c r="EM6" s="12"/>
-      <c r="EN6" s="11"/>
-      <c r="EO6" s="11"/>
-      <c r="EP6" s="12"/>
-      <c r="EQ6" s="11"/>
-      <c r="ER6" s="11"/>
-      <c r="ES6" s="12"/>
-      <c r="ET6" s="11"/>
-      <c r="EU6" s="11"/>
-      <c r="EV6" s="12"/>
-      <c r="EW6" s="11"/>
-      <c r="EX6" s="11"/>
-      <c r="EY6" s="12"/>
-      <c r="EZ6" s="11"/>
-      <c r="FA6" s="11"/>
-      <c r="FB6" s="12"/>
-      <c r="FC6" s="11"/>
-      <c r="FD6" s="11"/>
-      <c r="FE6" s="12"/>
-      <c r="FF6" s="11"/>
-      <c r="FG6" s="11"/>
-      <c r="FH6" s="12"/>
-      <c r="FI6" s="11"/>
-      <c r="FJ6" s="11"/>
-      <c r="FK6" s="12"/>
-      <c r="FL6" s="11"/>
-      <c r="FM6" s="11"/>
-      <c r="FN6" s="12"/>
-      <c r="FO6" s="11"/>
-      <c r="FP6" s="11"/>
-      <c r="FQ6" s="12"/>
-      <c r="FR6" s="11"/>
-      <c r="FS6" s="11"/>
-      <c r="FT6" s="12"/>
-      <c r="FU6" s="11"/>
-      <c r="FV6" s="11"/>
-      <c r="FW6" s="12"/>
-      <c r="FX6" s="11"/>
-      <c r="FY6" s="11"/>
-      <c r="FZ6" s="12"/>
-      <c r="GA6" s="11"/>
-      <c r="GB6" s="11"/>
-      <c r="GC6" s="12"/>
-      <c r="GD6" s="11"/>
-      <c r="GE6" s="11"/>
-      <c r="GF6" s="12"/>
-      <c r="GG6" s="11"/>
-      <c r="GH6" s="11"/>
-      <c r="GI6" s="12"/>
-      <c r="GJ6" s="11"/>
-      <c r="GK6" s="11"/>
-      <c r="GL6" s="12"/>
-      <c r="GM6" s="11"/>
-      <c r="GN6" s="11"/>
-      <c r="GO6" s="12"/>
-      <c r="GP6" s="11"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" s="2"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="2"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" s="2"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" s="2"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6" s="2"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6" s="2"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6" s="2"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6" s="2"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6" s="2"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6" s="2"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6" s="2"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6" s="2"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6" s="2"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+      <c r="ED6" s="2"/>
+      <c r="EE6"/>
+      <c r="EF6"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6"/>
+      <c r="EI6"/>
+      <c r="EJ6" s="2"/>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6" s="2"/>
+      <c r="EN6"/>
+      <c r="EO6"/>
+      <c r="EP6" s="2"/>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6" s="2"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
+      <c r="EV6" s="2"/>
+      <c r="EW6"/>
+      <c r="EX6"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6" s="2"/>
+      <c r="FC6"/>
+      <c r="FD6"/>
+      <c r="FE6" s="2"/>
+      <c r="FF6"/>
+      <c r="FG6"/>
+      <c r="FH6" s="2"/>
+      <c r="FI6"/>
+      <c r="FJ6"/>
+      <c r="FK6" s="2"/>
+      <c r="FL6"/>
+      <c r="FM6"/>
+      <c r="FN6" s="2"/>
+      <c r="FO6"/>
+      <c r="FP6"/>
+      <c r="FQ6" s="2"/>
+      <c r="FR6"/>
+      <c r="FS6"/>
+      <c r="FT6" s="2"/>
+      <c r="FU6"/>
+      <c r="FV6"/>
+      <c r="FW6" s="2"/>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6" s="2"/>
+      <c r="GA6"/>
+      <c r="GB6"/>
+      <c r="GC6" s="2"/>
+      <c r="GD6"/>
+      <c r="GE6"/>
+      <c r="GF6" s="2"/>
+      <c r="GG6"/>
+      <c r="GH6"/>
+      <c r="GI6" s="2"/>
+      <c r="GJ6"/>
+      <c r="GK6"/>
+      <c r="GL6" s="2"/>
+      <c r="GM6"/>
+      <c r="GN6"/>
+      <c r="GO6" s="2"/>
+      <c r="GP6"/>
       <c r="GQ6" s="9"/>
       <c r="GR6" s="9"/>
       <c r="GS6" s="9"/>
@@ -8789,199 +8717,199 @@
         <v>20</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="12"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="12"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="12"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="11"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
-      <c r="CB7" s="12"/>
-      <c r="CC7" s="11"/>
-      <c r="CD7" s="11"/>
-      <c r="CE7" s="12"/>
-      <c r="CF7" s="11"/>
-      <c r="CG7" s="11"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="11"/>
-      <c r="CJ7" s="11"/>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="11"/>
-      <c r="CM7" s="11"/>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="11"/>
-      <c r="CP7" s="11"/>
-      <c r="CQ7" s="12"/>
-      <c r="CR7" s="11"/>
-      <c r="CS7" s="11"/>
-      <c r="CT7" s="12"/>
-      <c r="CU7" s="11"/>
-      <c r="CV7" s="11"/>
-      <c r="CW7" s="12"/>
-      <c r="CX7" s="11"/>
-      <c r="CY7" s="11"/>
-      <c r="CZ7" s="12"/>
-      <c r="DA7" s="11"/>
-      <c r="DB7" s="11"/>
-      <c r="DC7" s="12"/>
-      <c r="DD7" s="11"/>
-      <c r="DE7" s="11"/>
-      <c r="DF7" s="12"/>
-      <c r="DG7" s="11"/>
-      <c r="DH7" s="11"/>
-      <c r="DI7" s="12"/>
-      <c r="DJ7" s="11"/>
-      <c r="DK7" s="11"/>
-      <c r="DL7" s="12"/>
-      <c r="DM7" s="11"/>
-      <c r="DN7" s="11"/>
-      <c r="DO7" s="12"/>
-      <c r="DP7" s="11"/>
-      <c r="DQ7" s="11"/>
-      <c r="DR7" s="12"/>
-      <c r="DS7" s="11"/>
-      <c r="DT7" s="11"/>
-      <c r="DU7" s="12"/>
-      <c r="DV7" s="11"/>
-      <c r="DW7" s="11"/>
-      <c r="DX7" s="12"/>
-      <c r="DY7" s="11"/>
-      <c r="DZ7" s="11"/>
-      <c r="EA7" s="12"/>
-      <c r="EB7" s="11"/>
-      <c r="EC7" s="11"/>
-      <c r="ED7" s="12"/>
-      <c r="EE7" s="11"/>
-      <c r="EF7" s="11"/>
-      <c r="EG7" s="12"/>
-      <c r="EH7" s="11"/>
-      <c r="EI7" s="11"/>
-      <c r="EJ7" s="12"/>
-      <c r="EK7" s="11"/>
-      <c r="EL7" s="11"/>
-      <c r="EM7" s="12"/>
-      <c r="EN7" s="11"/>
-      <c r="EO7" s="11"/>
-      <c r="EP7" s="12"/>
-      <c r="EQ7" s="11"/>
-      <c r="ER7" s="11"/>
-      <c r="ES7" s="12"/>
-      <c r="ET7" s="11"/>
-      <c r="EU7" s="11"/>
-      <c r="EV7" s="12"/>
-      <c r="EW7" s="11"/>
-      <c r="EX7" s="11"/>
-      <c r="EY7" s="12"/>
-      <c r="EZ7" s="11"/>
-      <c r="FA7" s="11"/>
-      <c r="FB7" s="12"/>
-      <c r="FC7" s="11"/>
-      <c r="FD7" s="11"/>
-      <c r="FE7" s="12"/>
-      <c r="FF7" s="11"/>
-      <c r="FG7" s="11"/>
-      <c r="FH7" s="12"/>
-      <c r="FI7" s="11"/>
-      <c r="FJ7" s="11"/>
-      <c r="FK7" s="12"/>
-      <c r="FL7" s="11"/>
-      <c r="FM7" s="11"/>
-      <c r="FN7" s="12"/>
-      <c r="FO7" s="11"/>
-      <c r="FP7" s="11"/>
-      <c r="FQ7" s="12"/>
-      <c r="FR7" s="11"/>
-      <c r="FS7" s="11"/>
-      <c r="FT7" s="12"/>
-      <c r="FU7" s="11"/>
-      <c r="FV7" s="11"/>
-      <c r="FW7" s="12"/>
-      <c r="FX7" s="11"/>
-      <c r="FY7" s="11"/>
-      <c r="FZ7" s="12"/>
-      <c r="GA7" s="11"/>
-      <c r="GB7" s="11"/>
-      <c r="GC7" s="12"/>
-      <c r="GD7" s="11"/>
-      <c r="GE7" s="11"/>
-      <c r="GF7" s="12"/>
-      <c r="GG7" s="11"/>
-      <c r="GH7" s="11"/>
-      <c r="GI7" s="12"/>
-      <c r="GJ7" s="11"/>
-      <c r="GK7" s="11"/>
-      <c r="GL7" s="12"/>
-      <c r="GM7" s="11"/>
-      <c r="GN7" s="11"/>
-      <c r="GO7" s="12"/>
-      <c r="GP7" s="11"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" s="2"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" s="2"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" s="2"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="2"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7" s="2"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7" s="2"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7" s="2"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7" s="2"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7" s="2"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7" s="2"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7" s="2"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7" s="2"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7" s="2"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7" s="2"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7" s="2"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7" s="2"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7" s="2"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7" s="2"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7" s="2"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7" s="2"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7" s="2"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7" s="2"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7" s="2"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7" s="2"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7" s="2"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7" s="2"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7" s="2"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7" s="2"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7" s="2"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7" s="2"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7" s="2"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7" s="2"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7" s="2"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7" s="2"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7" s="2"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7" s="2"/>
+      <c r="GP7"/>
       <c r="GQ7" s="9"/>
       <c r="GR7" s="9"/>
       <c r="GS7" s="9"/>
@@ -10122,199 +10050,199 @@
         <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="11"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="12"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="11"/>
-      <c r="BY8" s="12"/>
-      <c r="BZ8" s="11"/>
-      <c r="CA8" s="11"/>
-      <c r="CB8" s="12"/>
-      <c r="CC8" s="11"/>
-      <c r="CD8" s="11"/>
-      <c r="CE8" s="12"/>
-      <c r="CF8" s="11"/>
-      <c r="CG8" s="11"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="11"/>
-      <c r="CJ8" s="11"/>
-      <c r="CK8" s="12"/>
-      <c r="CL8" s="11"/>
-      <c r="CM8" s="11"/>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="11"/>
-      <c r="CP8" s="11"/>
-      <c r="CQ8" s="12"/>
-      <c r="CR8" s="11"/>
-      <c r="CS8" s="11"/>
-      <c r="CT8" s="12"/>
-      <c r="CU8" s="11"/>
-      <c r="CV8" s="11"/>
-      <c r="CW8" s="12"/>
-      <c r="CX8" s="11"/>
-      <c r="CY8" s="11"/>
-      <c r="CZ8" s="12"/>
-      <c r="DA8" s="11"/>
-      <c r="DB8" s="11"/>
-      <c r="DC8" s="12"/>
-      <c r="DD8" s="11"/>
-      <c r="DE8" s="11"/>
-      <c r="DF8" s="12"/>
-      <c r="DG8" s="11"/>
-      <c r="DH8" s="11"/>
-      <c r="DI8" s="12"/>
-      <c r="DJ8" s="11"/>
-      <c r="DK8" s="11"/>
-      <c r="DL8" s="12"/>
-      <c r="DM8" s="11"/>
-      <c r="DN8" s="11"/>
-      <c r="DO8" s="12"/>
-      <c r="DP8" s="11"/>
-      <c r="DQ8" s="11"/>
-      <c r="DR8" s="12"/>
-      <c r="DS8" s="11"/>
-      <c r="DT8" s="11"/>
-      <c r="DU8" s="12"/>
-      <c r="DV8" s="11"/>
-      <c r="DW8" s="11"/>
-      <c r="DX8" s="12"/>
-      <c r="DY8" s="11"/>
-      <c r="DZ8" s="11"/>
-      <c r="EA8" s="12"/>
-      <c r="EB8" s="11"/>
-      <c r="EC8" s="11"/>
-      <c r="ED8" s="12"/>
-      <c r="EE8" s="11"/>
-      <c r="EF8" s="11"/>
-      <c r="EG8" s="12"/>
-      <c r="EH8" s="11"/>
-      <c r="EI8" s="11"/>
-      <c r="EJ8" s="12"/>
-      <c r="EK8" s="11"/>
-      <c r="EL8" s="11"/>
-      <c r="EM8" s="12"/>
-      <c r="EN8" s="11"/>
-      <c r="EO8" s="11"/>
-      <c r="EP8" s="12"/>
-      <c r="EQ8" s="11"/>
-      <c r="ER8" s="11"/>
-      <c r="ES8" s="12"/>
-      <c r="ET8" s="11"/>
-      <c r="EU8" s="11"/>
-      <c r="EV8" s="12"/>
-      <c r="EW8" s="11"/>
-      <c r="EX8" s="11"/>
-      <c r="EY8" s="12"/>
-      <c r="EZ8" s="11"/>
-      <c r="FA8" s="11"/>
-      <c r="FB8" s="12"/>
-      <c r="FC8" s="11"/>
-      <c r="FD8" s="11"/>
-      <c r="FE8" s="12"/>
-      <c r="FF8" s="11"/>
-      <c r="FG8" s="11"/>
-      <c r="FH8" s="12"/>
-      <c r="FI8" s="11"/>
-      <c r="FJ8" s="11"/>
-      <c r="FK8" s="12"/>
-      <c r="FL8" s="11"/>
-      <c r="FM8" s="11"/>
-      <c r="FN8" s="12"/>
-      <c r="FO8" s="11"/>
-      <c r="FP8" s="11"/>
-      <c r="FQ8" s="12"/>
-      <c r="FR8" s="11"/>
-      <c r="FS8" s="11"/>
-      <c r="FT8" s="12"/>
-      <c r="FU8" s="11"/>
-      <c r="FV8" s="11"/>
-      <c r="FW8" s="12"/>
-      <c r="FX8" s="11"/>
-      <c r="FY8" s="11"/>
-      <c r="FZ8" s="12"/>
-      <c r="GA8" s="11"/>
-      <c r="GB8" s="11"/>
-      <c r="GC8" s="12"/>
-      <c r="GD8" s="11"/>
-      <c r="GE8" s="11"/>
-      <c r="GF8" s="12"/>
-      <c r="GG8" s="11"/>
-      <c r="GH8" s="11"/>
-      <c r="GI8" s="12"/>
-      <c r="GJ8" s="11"/>
-      <c r="GK8" s="11"/>
-      <c r="GL8" s="12"/>
-      <c r="GM8" s="11"/>
-      <c r="GN8" s="11"/>
-      <c r="GO8" s="12"/>
-      <c r="GP8" s="11"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" s="2"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="2"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" s="2"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="2"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8" s="2"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8" s="2"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8" s="2"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8" s="2"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8" s="2"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8" s="2"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8" s="2"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8" s="2"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8" s="2"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8" s="2"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8" s="2"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8" s="2"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8" s="2"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8" s="2"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8" s="2"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8" s="2"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8" s="2"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8" s="2"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8" s="2"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8" s="2"/>
+      <c r="FF8"/>
+      <c r="FG8"/>
+      <c r="FH8" s="2"/>
+      <c r="FI8"/>
+      <c r="FJ8"/>
+      <c r="FK8" s="2"/>
+      <c r="FL8"/>
+      <c r="FM8"/>
+      <c r="FN8" s="2"/>
+      <c r="FO8"/>
+      <c r="FP8"/>
+      <c r="FQ8" s="2"/>
+      <c r="FR8"/>
+      <c r="FS8"/>
+      <c r="FT8" s="2"/>
+      <c r="FU8"/>
+      <c r="FV8"/>
+      <c r="FW8" s="2"/>
+      <c r="FX8"/>
+      <c r="FY8"/>
+      <c r="FZ8" s="2"/>
+      <c r="GA8"/>
+      <c r="GB8"/>
+      <c r="GC8" s="2"/>
+      <c r="GD8"/>
+      <c r="GE8"/>
+      <c r="GF8" s="2"/>
+      <c r="GG8"/>
+      <c r="GH8"/>
+      <c r="GI8" s="2"/>
+      <c r="GJ8"/>
+      <c r="GK8"/>
+      <c r="GL8" s="2"/>
+      <c r="GM8"/>
+      <c r="GN8"/>
+      <c r="GO8" s="2"/>
+      <c r="GP8"/>
       <c r="GQ8" s="9"/>
       <c r="GR8" s="9"/>
       <c r="GS8" s="9"/>
@@ -12938,7 +12866,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>61</v>
@@ -12960,7 +12888,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>2</v>
@@ -12977,13 +12905,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -12991,13 +12919,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -13008,7 +12936,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>32</v>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F079B-536C-4B70-976F-8C2CFF438F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C21F8-0903-4FB6-9C61-D65D2D9E4114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>Vandaag ga ik met Bruno op alle pagina's de huisstyling en content nalopen. En we gaan een blok maken met de instructeurs op de over ons pagina.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik verder gegaan aan de agenda.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik de code nalopen en comments toevoegen.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met de login pagina stylen.</t>
+  </si>
+  <si>
+    <t>Vandaag gaan we de hele website nalopen en de laatste feedbackpuntjes van Jeroen verwerken.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik een paar aanpassingen gedaan aan de footer.</t>
+  </si>
+  <si>
+    <t>Ik ga teksten verbeteren, de readme bijwerken en feedback van Jeroen verwerken.</t>
   </si>
 </sst>
 </file>
@@ -626,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AXW40"/>
+  <dimension ref="A1:AXW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12942,6 +12960,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45378</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C21F8-0903-4FB6-9C61-D65D2D9E4114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC048CCD-77C5-49B3-B045-7275F8BE0132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>Ik ga teksten verbeteren, de readme bijwerken en feedback van Jeroen verwerken.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik bezig geweest met het verbeteren van teksten, het bijwerken van de readme en feedback van Jeroen verwerken.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik de hele website nagelopen op teksten, afbeeldingen en responsiveness en ben ik bezig geweest met feedback van Jeroen te verwerken.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met het comments toevoegen bij code.</t>
+  </si>
+  <si>
+    <t>Ik ga vandaag de login vertalen en comments toevoegen aan de code.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik een nieuw blok toevoegen aan de over ons pagina.</t>
   </si>
 </sst>
 </file>
@@ -644,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AXW44"/>
+  <dimension ref="A1:AXW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13016,6 +13031,60 @@
         <v>32</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45379</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC048CCD-77C5-49B3-B045-7275F8BE0132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246DEFB-5EEB-40AE-8E95-6B45B349C72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>Vandaag ga ik een nieuw blok toevoegen aan de over ons pagina.</t>
+  </si>
+  <si>
+    <t>Vandaag hebben we de sprint review.</t>
+  </si>
+  <si>
+    <t>Vorige week heb ik een nieuw blok met auto's toegevoegd aan de over ons pagina.</t>
+  </si>
+  <si>
+    <t>Vorige week heb ik de login en aanmelden pagina's vertaald naar het Nederlands.</t>
+  </si>
+  <si>
+    <t>Vandaag ben ik ziek.</t>
+  </si>
+  <si>
+    <t>Vorige week donderdag was ik ziek.</t>
   </si>
 </sst>
 </file>
@@ -659,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AXW48"/>
+  <dimension ref="A1:AXW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13069,7 +13084,9 @@
       <c r="C47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -13082,6 +13099,62 @@
         <v>16</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45384</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246DEFB-5EEB-40AE-8E95-6B45B349C72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BC430-0459-4077-9000-86611046723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -282,17 +282,41 @@
     <t>Vorige week heb ik de login en aanmelden pagina's vertaald naar het Nederlands.</t>
   </si>
   <si>
-    <t>Vandaag ben ik ziek.</t>
+    <t>Vorige week donderdag was ik ziek.</t>
   </si>
   <si>
-    <t>Vorige week donderdag was ik ziek.</t>
+    <t>Gisteren hadden we de sprint review.</t>
+  </si>
+  <si>
+    <t>Link user story</t>
+  </si>
+  <si>
+    <t>https://github.com/horizoncollege/rijschool-abc/issues/39</t>
+  </si>
+  <si>
+    <t>Vandaag heb ik mijn rijexamen. Hierdoor kan ik nu niks doen.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik een nieuwe pagina (proefles aanvragen) aanmaken en op de homepagina duidelijker maken dat de rijschool voor gehandicapten is.</t>
+  </si>
+  <si>
+    <t>https://github.com/horizoncollege/rijschool-abc/issues/28</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik de overzichtspagina stylen van de instructeur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandaag ga ik de retrospective maken en de docenten op de hoogte brengen. Daarna ga ik werken aan het contactformulier. </t>
+  </si>
+  <si>
+    <t>https://github.com/horizoncollege/rijschool-abc/issues/41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +343,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,10 +400,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,8 +427,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AXW52"/>
+  <dimension ref="A1:AXW57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13085,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -13127,7 +13164,7 @@
         <v>83</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -13158,8 +13195,83 @@
         <v>32</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45385</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C56" r:id="rId1" xr:uid="{72A4E4B5-38B9-4C68-BBA2-2A3465E5CA15}"/>
+    <hyperlink ref="D56" r:id="rId2" xr:uid="{A4952F2A-87AF-4C1E-9E8B-CD6AF7F11AEC}"/>
+    <hyperlink ref="B56" r:id="rId3" xr:uid="{B92C1E9A-1654-427D-B44D-A860E7699512}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BC430-0459-4077-9000-86611046723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF73BB-46E7-4156-935A-939301A98A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>https://github.com/horizoncollege/rijschool-abc/issues/41</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met een nieuwe pagina (proefrijles aanvragen). Daarnaast heb ik een contactformulier aangemaakt en toegevoegd.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik het contactformulier afmaken en de inloggen en aanmelden knoppen in de navbar aanpassen, omdat het mij handiger lijkt om hier een knop te plaatsen om een proefrijles aan te vragen.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik begonnen met het stylen van de overzichtspagina van de instructeur.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik verder met het stylen van de overzichtspagina van de instructeur.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik de retrospective gemaakt en de readme aangepast.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik kijken of het database goed staat en deze bijwerken.</t>
+  </si>
+  <si>
+    <t>N.v.t.</t>
   </si>
 </sst>
 </file>
@@ -711,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AXW57"/>
+  <dimension ref="A1:AXW62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13265,13 +13286,85 @@
         <v>32</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45386</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" xr:uid="{72A4E4B5-38B9-4C68-BBA2-2A3465E5CA15}"/>
     <hyperlink ref="D56" r:id="rId2" xr:uid="{A4952F2A-87AF-4C1E-9E8B-CD6AF7F11AEC}"/>
     <hyperlink ref="B56" r:id="rId3" xr:uid="{B92C1E9A-1654-427D-B44D-A860E7699512}"/>
+    <hyperlink ref="C61" r:id="rId4" xr:uid="{BA8F35F4-DF64-4F30-9F1B-82BBC53D0FC2}"/>
+    <hyperlink ref="D61" r:id="rId5" xr:uid="{B8AB0389-6A31-4C87-8C26-CEF9A6FF7D72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek.xlsx
+++ b/Logboek/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_dobvamy\Documents\GitHub\rijschool-abc\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF73BB-46E7-4156-935A-939301A98A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33191DA6-A51F-4B91-BB00-DAE00700DC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t>Wat ga je vandaag doen?</t>
   </si>
@@ -327,10 +327,28 @@
     <t>Gisteren heb ik de retrospective gemaakt en de readme aangepast.</t>
   </si>
   <si>
-    <t>Vandaag ga ik kijken of het database goed staat en deze bijwerken.</t>
+    <t>N.v.t.</t>
   </si>
   <si>
-    <t>N.v.t.</t>
+    <t>Vandaag ga ik kijken of het database goed staat en deze bijwerken. Daarnaast ga ik de retrospective afmaken.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik de retrospective afgemaakt.</t>
+  </si>
+  <si>
+    <t>Gisteren heb ik het contactformulier afgemaakt en de banner verbeterd.</t>
+  </si>
+  <si>
+    <t>Gisteren ben ik verder gegaan met het stylen van de overzichtspagina.</t>
+  </si>
+  <si>
+    <t>Ik heb hulp nodig van de docent bij het stylen van de overzichtspagina.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik met Chris de hero banner stylen.</t>
+  </si>
+  <si>
+    <t>Vandaag ga ik met Bruno de hero banner stylen.</t>
   </si>
 </sst>
 </file>
@@ -732,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AXW62"/>
+  <dimension ref="A1:AXW67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13319,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>96</v>
@@ -13333,7 +13351,7 @@
         <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>94</v>
@@ -13354,6 +13372,76 @@
       </c>
       <c r="D62" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>45387</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -13363,8 +13451,11 @@
     <hyperlink ref="B56" r:id="rId3" xr:uid="{B92C1E9A-1654-427D-B44D-A860E7699512}"/>
     <hyperlink ref="C61" r:id="rId4" xr:uid="{BA8F35F4-DF64-4F30-9F1B-82BBC53D0FC2}"/>
     <hyperlink ref="D61" r:id="rId5" xr:uid="{B8AB0389-6A31-4C87-8C26-CEF9A6FF7D72}"/>
+    <hyperlink ref="C66" r:id="rId6" xr:uid="{4F736914-BE59-4FA8-A64B-1A208F53BB95}"/>
+    <hyperlink ref="D66" r:id="rId7" xr:uid="{E6FCA577-14D0-4F63-AA31-A5F32A7973D9}"/>
+    <hyperlink ref="B66" r:id="rId8" xr:uid="{6160A85A-7656-499E-BB70-558330A0EB5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId9"/>
 </worksheet>
 </file>